--- a/test_data/#17_2x10_5locators_2D_no_feedback_correction_0809/#3/ble-pd-position_all_5.xlsx
+++ b/test_data/#17_2x10_5locators_2D_no_feedback_correction_0809/#3/ble-pd-position_all_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yucheng/Documents/Github/aod_eFence/test_data/#17_2x10_5locators_2D_no_feedback_correction_0809/#3/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{236EB3B7-494E-6841-82E8-1FE270791565}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F753ED-923A-0F42-A5C4-1695D4208A15}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13120" yWindow="580" windowWidth="38400" windowHeight="19760" firstSheet="10" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1302,15 +1302,17 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ble-pd-60A423C96B13</c:v>
+            <c:v>ble-pd-60A423C968C6</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1321,543 +1323,561 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ble-pd-60A423C96B13'!$A$2:$A$280</c:f>
+              <c:f>'ble-pd-60A423C968C6'!$A$2:$A$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="279"/>
                 <c:pt idx="0">
-                  <c:v>1.5713000000000001E-2</c:v>
+                  <c:v>3.4093999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.0092000000000001E-2</c:v>
+                  <c:v>6.5997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.6332999999999999E-2</c:v>
+                  <c:v>9.7871E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3216999999999995E-2</c:v>
+                  <c:v>0.12909499999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.0464999999999995E-2</c:v>
+                  <c:v>0.15981400000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9.7701999999999997E-2</c:v>
+                  <c:v>0.18929499999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.116817</c:v>
+                  <c:v>0.21806800000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.137958</c:v>
+                  <c:v>0.24740599999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.160382</c:v>
+                  <c:v>0.277084</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.18401600000000001</c:v>
+                  <c:v>0.30593300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.19400000000000001</c:v>
+                  <c:v>0.29981999999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.208289</c:v>
+                  <c:v>0.29411399999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.22475700000000001</c:v>
+                  <c:v>0.28667500000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.246175</c:v>
+                  <c:v>0.27826000000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.27392899999999998</c:v>
+                  <c:v>0.26883899999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.308867</c:v>
+                  <c:v>0.258461</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.34934700000000002</c:v>
+                  <c:v>0.24917500000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.39269500000000002</c:v>
+                  <c:v>0.23836399999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.44044299999999997</c:v>
+                  <c:v>0.22638900000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.492645</c:v>
+                  <c:v>0.214777</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.54783400000000004</c:v>
+                  <c:v>0.203565</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.60314199999999996</c:v>
+                  <c:v>0.19636300000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.65067900000000001</c:v>
+                  <c:v>0.192269</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.68552400000000002</c:v>
+                  <c:v>0.19036800000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.71601199999999998</c:v>
+                  <c:v>0.18906100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.73472000000000004</c:v>
+                  <c:v>0.18975900000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.74263400000000002</c:v>
+                  <c:v>0.19011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.74373999999999996</c:v>
+                  <c:v>0.19153400000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.73863100000000004</c:v>
+                  <c:v>0.19402900000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.72876799999999997</c:v>
+                  <c:v>0.19855800000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.71302299999999996</c:v>
+                  <c:v>0.205096</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.69395600000000002</c:v>
+                  <c:v>0.21146799999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.67879199999999995</c:v>
+                  <c:v>0.21906200000000001</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.67111100000000001</c:v>
+                  <c:v>0.22936799999999999</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.66154900000000005</c:v>
+                  <c:v>0.244285</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.65726399999999996</c:v>
+                  <c:v>0.25979799999999997</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.65642699999999998</c:v>
+                  <c:v>0.27528200000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.656663</c:v>
+                  <c:v>0.29072900000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.65717199999999998</c:v>
+                  <c:v>0.30588700000000002</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.65739999999999998</c:v>
+                  <c:v>0.31866800000000001</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.65545699999999996</c:v>
+                  <c:v>0.32977200000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.65238799999999997</c:v>
+                  <c:v>0.33835199999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.64750399999999997</c:v>
+                  <c:v>0.34427000000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.64278999999999997</c:v>
+                  <c:v>0.34649400000000002</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.63791399999999998</c:v>
+                  <c:v>0.344578</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.63254900000000003</c:v>
+                  <c:v>0.34135900000000002</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.626749</c:v>
+                  <c:v>0.33775899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.62029500000000004</c:v>
+                  <c:v>0.33402500000000002</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.61493200000000003</c:v>
+                  <c:v>0.32974300000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.60974899999999999</c:v>
+                  <c:v>0.32630799999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.60897299999999999</c:v>
+                  <c:v>0.32333699999999999</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.61164399999999997</c:v>
+                  <c:v>0.32044899999999998</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.61866299999999996</c:v>
+                  <c:v>0.31806800000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.62756999999999996</c:v>
+                  <c:v>0.31636900000000001</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.63949500000000004</c:v>
+                  <c:v>0.31548199999999998</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0.65510100000000004</c:v>
+                  <c:v>0.31592199999999998</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0.67474599999999996</c:v>
+                  <c:v>0.317166</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0.69700499999999999</c:v>
+                  <c:v>0.31877800000000001</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0.71770800000000001</c:v>
+                  <c:v>0.32074599999999998</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0.73690599999999995</c:v>
+                  <c:v>0.322492</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0.75457200000000002</c:v>
+                  <c:v>0.32308500000000001</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0.76986399999999999</c:v>
+                  <c:v>0.32374399999999998</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0.78195499999999996</c:v>
+                  <c:v>0.324104</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0.79121300000000006</c:v>
+                  <c:v>0.32464700000000002</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0.79704600000000003</c:v>
+                  <c:v>0.32528299999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0.79898499999999995</c:v>
+                  <c:v>0.32591999999999999</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0.79756199999999999</c:v>
+                  <c:v>0.32690200000000003</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0.79437999999999998</c:v>
+                  <c:v>0.328463</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>0.79252699999999998</c:v>
+                  <c:v>0.33138400000000001</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>0.79156899999999997</c:v>
+                  <c:v>0.33570899999999998</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>0.79023399999999999</c:v>
+                  <c:v>0.342449</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>0.78827700000000001</c:v>
+                  <c:v>0.35140399999999999</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>0.78585099999999997</c:v>
+                  <c:v>0.36263600000000001</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>0.78267600000000004</c:v>
+                  <c:v>0.37279099999999998</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>0.77849000000000002</c:v>
+                  <c:v>0.38139200000000001</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>0.77339400000000003</c:v>
+                  <c:v>0.38870500000000002</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>0.76695999999999998</c:v>
+                  <c:v>0.39510800000000001</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>0.76146400000000003</c:v>
+                  <c:v>0.40097699999999997</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>0.75596300000000005</c:v>
+                  <c:v>0.40626000000000001</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>0.75104199999999999</c:v>
+                  <c:v>0.41127599999999997</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>0.74694099999999997</c:v>
+                  <c:v>0.415607</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>0.74442399999999997</c:v>
+                  <c:v>0.42944300000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>0.74367300000000003</c:v>
+                  <c:v>0.44098900000000002</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>0.74504899999999996</c:v>
+                  <c:v>0.45266699999999999</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>0.74880199999999997</c:v>
+                  <c:v>0.46469100000000002</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>0.75506499999999999</c:v>
+                  <c:v>0.47627799999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>0.75731800000000005</c:v>
+                  <c:v>0.48526399999999997</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>0.75531199999999998</c:v>
+                  <c:v>0.49252699999999999</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>0.74987400000000004</c:v>
+                  <c:v>0.49701499999999998</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>0.74503299999999995</c:v>
+                  <c:v>0.49646299999999999</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>0.74122500000000002</c:v>
+                  <c:v>0.49052400000000002</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>0.73831800000000003</c:v>
+                  <c:v>0.467889</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>0.73649299999999995</c:v>
+                  <c:v>0.43945899999999999</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>0.73561200000000004</c:v>
+                  <c:v>0.40269899999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>0.73519800000000002</c:v>
+                  <c:v>0.35855399999999998</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>0.73432200000000003</c:v>
+                  <c:v>0.31196800000000002</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>0.73896099999999998</c:v>
+                  <c:v>0.26496500000000001</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>0.74768900000000005</c:v>
+                  <c:v>0.216777</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>0.75948499999999997</c:v>
+                  <c:v>0.16828000000000001</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>0.76997400000000005</c:v>
+                  <c:v>0.12092</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>0.779976</c:v>
+                  <c:v>7.4596999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>0.78964999999999996</c:v>
+                  <c:v>2.9901E-2</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>0.79881100000000005</c:v>
+                  <c:v>-1.2929E-2</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>0.80760299999999996</c:v>
+                  <c:v>-5.0881999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>0.81639899999999999</c:v>
+                  <c:v>-8.4763000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>0.82614399999999999</c:v>
+                  <c:v>-0.119224</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>0.83768900000000002</c:v>
+                  <c:v>-0.15490799999999999</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>0.85156100000000001</c:v>
+                  <c:v>-0.192413</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>0.86687000000000003</c:v>
+                  <c:v>-0.23098399999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>0.88344800000000001</c:v>
+                  <c:v>-0.269708</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>0.90029400000000004</c:v>
+                  <c:v>-0.30779800000000002</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>0.91693400000000003</c:v>
+                  <c:v>-0.34485500000000002</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>0.93301400000000001</c:v>
+                  <c:v>-0.38025500000000001</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>0.94859800000000005</c:v>
+                  <c:v>-0.41244500000000001</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>0.96345099999999995</c:v>
+                  <c:v>-0.44079600000000002</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>0.97638199999999997</c:v>
+                  <c:v>-0.46546799999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>0.98738199999999998</c:v>
+                  <c:v>-0.48626900000000001</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>0.99679799999999996</c:v>
+                  <c:v>-0.50338300000000002</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>1.0046120000000001</c:v>
+                  <c:v>-0.51708900000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>1.0115620000000001</c:v>
+                  <c:v>-0.52775099999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>1.017819</c:v>
+                  <c:v>-0.53546700000000003</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>1.024016</c:v>
+                  <c:v>-0.53961300000000001</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>1.030143</c:v>
+                  <c:v>-0.54037500000000005</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>1.0320130000000001</c:v>
+                  <c:v>-0.54009700000000005</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>1.0297240000000001</c:v>
+                  <c:v>-0.53943799999999997</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>1.027074</c:v>
+                  <c:v>-0.537941</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1.022743</c:v>
+                  <c:v>-0.53432100000000005</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>1.0159210000000001</c:v>
+                  <c:v>-0.52709600000000001</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>1.0078279999999999</c:v>
+                  <c:v>-0.517289</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>0.99785999999999997</c:v>
+                  <c:v>-0.50568900000000006</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>0.98606899999999997</c:v>
+                  <c:v>-0.49165700000000001</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>0.97367400000000004</c:v>
+                  <c:v>-0.47424899999999998</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>0.95962400000000003</c:v>
+                  <c:v>-0.45415</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>0.94716299999999998</c:v>
+                  <c:v>-0.42757099999999998</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>0.935948</c:v>
+                  <c:v>-0.394673</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>0.92417700000000003</c:v>
+                  <c:v>-0.35576200000000002</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>0.91302799999999995</c:v>
+                  <c:v>-0.312921</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>0.90214099999999997</c:v>
+                  <c:v>-0.27073199999999997</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>0.89067700000000005</c:v>
+                  <c:v>-0.229044</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>0.87822199999999995</c:v>
+                  <c:v>-0.183563</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>0.86460899999999996</c:v>
+                  <c:v>-0.136321</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>0.84590500000000002</c:v>
+                  <c:v>-8.9913999999999994E-2</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>0.82364000000000004</c:v>
+                  <c:v>-4.4692000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>0.79887799999999998</c:v>
+                  <c:v>-5.561E-3</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>0.77221499999999998</c:v>
+                  <c:v>2.7404999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>0.74303200000000003</c:v>
+                  <c:v>5.4355000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>0.71052599999999999</c:v>
+                  <c:v>7.5811000000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>0.67565799999999998</c:v>
+                  <c:v>9.5015000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>0.64082600000000001</c:v>
+                  <c:v>0.113716</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>0.60728199999999999</c:v>
+                  <c:v>0.12784799999999999</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>0.575268</c:v>
+                  <c:v>0.138325</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>0.547462</c:v>
+                  <c:v>0.14551700000000001</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>0.52440299999999995</c:v>
+                  <c:v>0.14996000000000001</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>0.50621400000000005</c:v>
+                  <c:v>0.15392500000000001</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>0.49271599999999999</c:v>
+                  <c:v>0.15778400000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>0.48355100000000001</c:v>
+                  <c:v>0.16183400000000001</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>0.479217</c:v>
+                  <c:v>0.16636400000000001</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>0.479134</c:v>
+                  <c:v>0.17136599999999999</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>0.48105100000000001</c:v>
+                  <c:v>0.17422000000000001</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>0.48356700000000002</c:v>
+                  <c:v>0.17738300000000001</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>0.486321</c:v>
+                  <c:v>0.180227</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>0.48872500000000002</c:v>
+                  <c:v>0.18281</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.48993599999999998</c:v>
+                  <c:v>0.185198</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>0.48954500000000001</c:v>
+                  <c:v>0.187614</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>0.48702800000000002</c:v>
+                  <c:v>0.19117799999999999</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>0.48349700000000001</c:v>
+                  <c:v>0.19559000000000001</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>0.47902299999999998</c:v>
+                  <c:v>0.20079</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>0.47387499999999999</c:v>
+                  <c:v>0.20696400000000001</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>0.46833000000000002</c:v>
+                  <c:v>0.21831200000000001</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>0.46313300000000002</c:v>
+                  <c:v>0.23579900000000001</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>0.45861000000000002</c:v>
+                  <c:v>0.26213900000000001</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>0.45489099999999999</c:v>
+                  <c:v>0.299846</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.45210299999999998</c:v>
+                  <c:v>0.35011599999999998</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.450206</c:v>
+                  <c:v>0.41151599999999999</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.449679</c:v>
+                  <c:v>0.48189799999999999</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>0.44926300000000002</c:v>
+                  <c:v>0.56037499999999996</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>0.44922099999999998</c:v>
+                  <c:v>0.64524700000000001</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>0.449575</c:v>
+                  <c:v>0.73491799999999996</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.82697100000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.92110000000000003</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1.0021629999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1.068549</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1.1211580000000001</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1.15808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1865,7 +1885,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-19C3-1E45-84D1-73595FF2608D}"/>
+              <c16:uniqueId val="{00000006-19C3-1E45-84D1-73595FF2608D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2318,8 +2338,576 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C96B13</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C96B13'!$A$2:$A$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>1.5713000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0092000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6332999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3216999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.0464999999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.7701999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.116817</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.137958</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.160382</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18401600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.19400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.208289</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.22475700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.246175</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27392899999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.308867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.34934700000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.39269500000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.44044299999999997</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.492645</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.54783400000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.60314199999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65067900000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.68552400000000002</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.71601199999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.73472000000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.74263400000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74373999999999996</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.73863100000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.72876799999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.71302299999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.69395600000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.67879199999999995</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.67111100000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.66154900000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.65726399999999996</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.65642699999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.656663</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.65717199999999998</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.65739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.65545699999999996</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.65238799999999997</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.64750399999999997</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.64278999999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.63791399999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.63254900000000003</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.626749</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.62029500000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.61493200000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.60974899999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.60897299999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.61164399999999997</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.61866299999999996</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.62756999999999996</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.63949500000000004</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.65510100000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.67474599999999996</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.69700499999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.71770800000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.73690599999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.75457200000000002</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.76986399999999999</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.78195499999999996</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.79121300000000006</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.79704600000000003</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.79898499999999995</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.79756199999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.79437999999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.79252699999999998</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.79156899999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.79023399999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.78827700000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.78585099999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.78267600000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.77849000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.77339400000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.76695999999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.76146400000000003</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75596300000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.75104199999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.74694099999999997</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.74442399999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.74367300000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.74504899999999996</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.74880199999999997</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.75506499999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.75731800000000005</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.75531199999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.74987400000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.74503299999999995</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.74122500000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.73831800000000003</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.73649299999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.73561200000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.73519800000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.73432200000000003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.73896099999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.74768900000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.75948499999999997</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.76997400000000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.779976</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.78964999999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.79881100000000005</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.80760299999999996</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.81639899999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.82614399999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.83768900000000002</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.85156100000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.86687000000000003</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.88344800000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.90029400000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.91693400000000003</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.93301400000000001</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.94859800000000005</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.96345099999999995</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.97638199999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.98738199999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.99679799999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.0046120000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.0115620000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.017819</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.024016</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.030143</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.0320130000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.0297240000000001</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.027074</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.022743</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.0159210000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.0078279999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.99785999999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.98606899999999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.97367400000000004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.95962400000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.94716299999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.935948</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.92417700000000003</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.91302799999999995</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.90214099999999997</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.89067700000000005</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.87822199999999995</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.86460899999999996</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.84590500000000002</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.82364000000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.79887799999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.77221499999999998</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.74303200000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.71052599999999999</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.67565799999999998</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.64082600000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.60728199999999999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.575268</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.547462</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.52440299999999995</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.50621400000000005</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.49271599999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.48355100000000001</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.479217</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.479134</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.48105100000000001</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.48356700000000002</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.486321</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.48872500000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.48993599999999998</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.48954500000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.48702800000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.48349700000000001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.47902299999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.47387499999999999</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.46833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.46313300000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.45861000000000002</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.45489099999999999</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.45210299999999998</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.450206</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.449679</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.44926300000000002</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.44922099999999998</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.449575</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-19C3-1E45-84D1-73595FF2608D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>ble-pd-60A423C96AB5</c:v>
           </c:tx>
@@ -2884,7 +3472,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>ble-pd-60A423C96721</c:v>
           </c:tx>
@@ -3524,7 +4112,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>ble-pd-60A423C96B3C</c:v>
           </c:tx>
@@ -4199,8 +4787,1049 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C96746</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C96746'!$A$2:$A$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>4.4279999999999996E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6016000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3620000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.6461999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12502199999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16946700000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.216722</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.260299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.30808600000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.357431</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40175699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.42988900000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.45322499999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.47322399999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.489755</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.50274300000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.51475400000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.53149599999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.54568000000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.56033500000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.57900799999999997</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.600661</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.62512699999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.650702</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.676562</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.70195799999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.72748199999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.74809400000000004</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.76847699999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.78754900000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.80259499999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.81031299999999995</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.81240999999999997</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.81040599999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.80459700000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.79602399999999995</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.78529800000000005</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.77793599999999996</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.76862600000000003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.75820200000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.74813300000000005</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.74151800000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.73659300000000005</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.73284899999999997</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.73079799999999995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.73060199999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.731877</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.73555999999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.74140600000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.74934400000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.759135</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.76995100000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.77963499999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.78643399999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.79016900000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.79174299999999997</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.79207099999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.79056999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.78749400000000003</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.78227899999999995</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.775115</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.767266</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.76077099999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.75723799999999997</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.75693100000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.758629</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.76045499999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.76234599999999997</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.76362399999999997</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.765351</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.76676900000000003</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.76714000000000004</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.76692800000000005</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.76645700000000005</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.76507199999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.76242500000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.75944299999999998</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.75615699999999997</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.75319100000000005</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.74998200000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.74738199999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.74526800000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.74306300000000003</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.74035899999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.73741400000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.73431199999999996</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.73036699999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.72526999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.71885399999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.71087500000000003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.70093399999999995</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.68798099999999995</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.66996599999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.64668999999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.62241800000000003</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.59886600000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.57671499999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.55643399999999998</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.53779100000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.51803699999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.49996800000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.48627300000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.47893799999999997</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.47806700000000002</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.47913899999999998</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.47992000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.480022</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.47891400000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.477406</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.47959800000000002</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.48297600000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.48622399999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.48926599999999998</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.49228899999999998</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.49571700000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.50053499999999995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.50656100000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.51360799999999995</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.51948799999999995</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.52466999999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.52942299999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.53311900000000001</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.53446000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.534358</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.53269200000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.528945</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.52317599999999997</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.51636700000000002</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.51018799999999997</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.50377499999999997</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.49718000000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.49096000000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.48671700000000001</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.48378300000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.48194500000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.48141</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.48310700000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.48654900000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.492782</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.50022200000000006</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.50880300000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.51842699999999997</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.52929199999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.538609</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.54553300000000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.55039300000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.55198700000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.54982699999999995</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.543215</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.53305000000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.52164200000000005</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.510436</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.50036099999999994</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.49398199999999998</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.49302699999999999</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.498253</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.51156400000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.53428399999999998</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.56569999999999998</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.60524900000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.65013399999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.69842800000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.748471</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.80001199999999995</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.85232399999999997</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.903868</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.95388499999999998</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.99521400000000004</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1.0332209999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1.0632779999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1.079221</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1.088897</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1.089062</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1.0810390000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1.064689</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1.0395099999999999</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1.004283</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-19C3-1E45-84D1-73595FF2608D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C9689C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C9689C'!$A$2:$A$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>-8.3211999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.14955599999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.199906</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.245388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.279173</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.30140699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.31024200000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.303309</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.28427200000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.254216</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.12937899999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.0234999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.103908</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.223436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.34096500000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.45260299999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55488300000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.64394300000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.72464399999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.79783099999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.86218600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.91711299999999996</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.96228400000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.99815200000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.023971</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0436129999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.05942</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0732029999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.082924</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.0879760000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.088271</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.0845450000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.077698</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0675760000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0546739999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0397689999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.022697</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.004766</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.98624199999999995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.96737300000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.94936900000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.93309200000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.91947000000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.90826399999999996</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.90044299999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.89563899999999996</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.89336800000000005</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.89176299999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.89199300000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.89375400000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.89642599999999995</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.89980199999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.90294200000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.90655300000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.90999300000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91510100000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92230500000000004</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.93257100000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.94553500000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.96169400000000005</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.97777999999999998</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.99012</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.99770400000000004</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.99934599999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.99780899999999995</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.99257600000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98256100000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.96537399999999995</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.93548900000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90541899999999997</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.87617299999999998</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.85137799999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.83237700000000003</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.82072500000000004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.81402600000000003</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.81052400000000002</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.809693</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.80797300000000005</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.81385799999999997</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.81577200000000005</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81568399999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81648200000000004</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81932400000000005</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.82558900000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.83424900000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84397100000000003</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.847468</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.85142700000000004</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.856881</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.86350800000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.87182700000000002</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.87834100000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.88104000000000005</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.87834900000000005</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.87143700000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.86106300000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.85681099999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.85695500000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.85792100000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.86326000000000003</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.86951999999999996</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.87761900000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.88803500000000002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.90906799999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.94070799999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.98327399999999998</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.0338419999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.0903700000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.143024</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.1829080000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.212904</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.235517</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2521629999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.2542990000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2435080000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.218272</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.1825190000000001</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.1402129999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.1008739999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.066403</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.0372429999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.0157419999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.0021610000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.99513499999999999</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.991842</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.99293299999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.995784</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.99796899999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.99855799999999995</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.99961199999999995</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.0000640000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.99312400000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.97609199999999996</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.95999299999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.93867900000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.916659</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.89310699999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.86738199999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.840283</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.81427000000000005</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.79187700000000005</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.77890199999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.77291200000000004</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.76328099999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.75712900000000005</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.75129100000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-19C3-1E45-84D1-73595FF2608D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>ble-pd-60A423C96825</c:v>
           </c:tx>
@@ -4788,596 +6417,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C968C6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C968C6'!$A$2:$A$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>3.4093999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.5997E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.7871E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12909499999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15981400000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.18929499999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.21806800000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.24740599999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.277084</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.30593300000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.29981999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.29411399999999999</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.28667500000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.27826000000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.26883899999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.258461</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.24917500000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.23836399999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.22638900000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.214777</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.203565</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.19636300000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.192269</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.19036800000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.18906100000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.18975900000000001</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.19011</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.19153400000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.19402900000000001</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.19855800000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.205096</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.21146799999999999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.21906200000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.22936799999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.244285</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.25979799999999997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.27528200000000003</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.29072900000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.30588700000000002</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.31866800000000001</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.32977200000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.33835199999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.34427000000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.34649400000000002</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.344578</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.34135900000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.33775899999999998</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.33402500000000002</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.32974300000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.32630799999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.32333699999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.32044899999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.31806800000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.31636900000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.31548199999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.31592199999999998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.317166</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.31877800000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.32074599999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.322492</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.32308500000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.32374399999999998</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.324104</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.32464700000000002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.32528299999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.32591999999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.32690200000000003</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.328463</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.33138400000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.33570899999999998</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.342449</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.35140399999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.36263600000000001</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.37279099999999998</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.38139200000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.38870500000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.39510800000000001</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.40097699999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.40626000000000001</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.41127599999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.415607</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.42944300000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.44098900000000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.45266699999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.46469100000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.47627799999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.48526399999999997</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.49252699999999999</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.49701499999999998</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.49646299999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.49052400000000002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.467889</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.43945899999999999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.40269899999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.35855399999999998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.31196800000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.26496500000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.216777</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.16828000000000001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.12092</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.4596999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.9901E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-1.2929E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-5.0881999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-8.4763000000000005E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.119224</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.15490799999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-0.192413</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-0.23098399999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-0.269708</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-0.30779800000000002</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-0.34485500000000002</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>-0.38025500000000001</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>-0.41244500000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>-0.44079600000000002</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>-0.46546799999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>-0.48626900000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>-0.50338300000000002</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>-0.51708900000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>-0.52775099999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>-0.53546700000000003</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>-0.53961300000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>-0.54037500000000005</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>-0.54009700000000005</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>-0.53943799999999997</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>-0.537941</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>-0.53432100000000005</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>-0.52709600000000001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>-0.517289</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>-0.50568900000000006</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>-0.49165700000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>-0.47424899999999998</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>-0.45415</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>-0.42757099999999998</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>-0.394673</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>-0.35576200000000002</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>-0.312921</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>-0.27073199999999997</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>-0.229044</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>-0.183563</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>-0.136321</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>-8.9913999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>-4.4692000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>-5.561E-3</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.7404999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>5.4355000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7.5811000000000003E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>9.5015000000000002E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.113716</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.12784799999999999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.138325</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.14551700000000001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.14996000000000001</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.15392500000000001</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.15778400000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.16183400000000001</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.16636400000000001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.17136599999999999</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.17422000000000001</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.17738300000000001</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.180227</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.18281</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.185198</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.187614</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.19117799999999999</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.19559000000000001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.20079</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.20696400000000001</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.21831200000000001</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.23579900000000001</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.26213900000000001</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.299846</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.35011599999999998</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.41151599999999999</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.48189799999999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.56037499999999996</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.64524700000000001</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.73491799999999996</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.82697100000000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.92110000000000003</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1.0021629999999999</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1.068549</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1.1211580000000001</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1.15808</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-19C3-1E45-84D1-73595FF2608D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>ble-pd-60A423C96FC6</c:v>
           </c:tx>
@@ -6038,1047 +7079,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-19C3-1E45-84D1-73595FF2608D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C96746</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C96746'!$A$2:$A$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>4.4279999999999996E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.6016000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.3620000000000001E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>8.6461999999999997E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12502199999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.16946700000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.216722</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.260299</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.30808600000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.357431</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40175699999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.42988900000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.45322499999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.47322399999999998</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.489755</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50274300000000005</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.51475400000000004</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.53149599999999997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.54568000000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.56033500000000003</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.57900799999999997</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.600661</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.62512699999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.650702</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.676562</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.70195799999999997</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.72748199999999996</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.74809400000000004</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.76847699999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.78754900000000005</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.80259499999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.81031299999999995</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.81240999999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.81040599999999996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.80459700000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.79602399999999995</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.78529800000000005</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.77793599999999996</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.76862600000000003</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.75820200000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.74813300000000005</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.74151800000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.73659300000000005</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.73284899999999997</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.73079799999999995</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.73060199999999997</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.731877</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.73555999999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.74140600000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.74934400000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.759135</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.76995100000000005</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.77963499999999997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.78643399999999997</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.79016900000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.79174299999999997</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.79207099999999997</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.79056999999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.78749400000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.78227899999999995</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.775115</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.767266</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.76077099999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.75723799999999997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.75693100000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.758629</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.76045499999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.76234599999999997</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.76362399999999997</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.765351</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.76676900000000003</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.76714000000000004</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.76692800000000005</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.76645700000000005</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.76507199999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.76242500000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.75944299999999998</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.75615699999999997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.75319100000000005</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.74998200000000004</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.74738199999999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.74526800000000004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.74306300000000003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.74035899999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.73741400000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.73431199999999996</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.73036699999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.72526999999999997</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.71885399999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.71087500000000003</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.70093399999999995</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.68798099999999995</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.66996599999999995</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.64668999999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.62241800000000003</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.59886600000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.57671499999999998</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.55643399999999998</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.53779100000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.51803699999999997</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.49996800000000002</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.48627300000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.47893799999999997</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.47806700000000002</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.47913899999999998</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.47992000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.480022</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.47891400000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.477406</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.47959800000000002</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.48297600000000002</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.48622399999999999</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.48926599999999998</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.49228899999999998</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.49571700000000002</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.50053499999999995</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.50656100000000004</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.51360799999999995</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.51948799999999995</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.52466999999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.52942299999999998</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.53311900000000001</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.53446000000000005</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.534358</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.53269200000000005</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.528945</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.52317599999999997</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.51636700000000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.51018799999999997</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.50377499999999997</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.49718000000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.49096000000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.48671700000000001</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.48378300000000002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.48194500000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.48141</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.48310700000000001</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.48654900000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.492782</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.50022200000000006</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.50880300000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.51842699999999997</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.52929199999999998</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.538609</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.54553300000000005</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.55039300000000002</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.55198700000000001</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.54982699999999995</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.543215</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.53305000000000002</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.52164200000000005</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.510436</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.50036099999999994</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.49398199999999998</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.49302699999999999</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.498253</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.51156400000000002</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.53428399999999998</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.56569999999999998</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.60524900000000004</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.65013399999999999</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.69842800000000005</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.748471</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.80001199999999995</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.85232399999999997</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.903868</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.95388499999999998</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.99521400000000004</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1.0332209999999999</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1.0632779999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1.079221</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1.088897</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1.089062</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1.0810390000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1.064689</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1.0395099999999999</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1.004283</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-19C3-1E45-84D1-73595FF2608D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C9689C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C9689C'!$A$2:$A$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>-8.3211999999999994E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-0.14955599999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-0.199906</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-0.245388</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-0.279173</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-0.30140699999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-0.31024200000000002</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-0.303309</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-0.28427200000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.254216</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-0.12937899999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.0234999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.103908</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.223436</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.34096500000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.45260299999999998</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.55488300000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.64394300000000004</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.72464399999999995</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.79783099999999996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.86218600000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.91711299999999996</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.96228400000000003</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.99815200000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.023971</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.0436129999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.05942</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.0732029999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.082924</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.0879760000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.088271</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.0845450000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.077698</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.0675760000000001</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0546739999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.0397689999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.022697</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.004766</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.98624199999999995</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.96737300000000004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.94936900000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.93309200000000003</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.91947000000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.90826399999999996</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.90044299999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.89563899999999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.89336800000000005</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.89176299999999997</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.89199300000000004</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.89375400000000005</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.89642599999999995</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.89980199999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.90294200000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.90655300000000005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.90999300000000005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.91510100000000005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.92230500000000004</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.93257100000000004</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.94553500000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.96169400000000005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.97777999999999998</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.99012</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.99770400000000004</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.99934599999999996</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.99780899999999995</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.99257600000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.98256100000000002</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.96537399999999995</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.93548900000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.90541899999999997</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.87617299999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.85137799999999997</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.83237700000000003</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.82072500000000004</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.81402600000000003</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.81052400000000002</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.809693</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.80797300000000005</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.81385799999999997</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.81577200000000005</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.81568399999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.81648200000000004</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.81932400000000005</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.82558900000000002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.83424900000000002</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.84397100000000003</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.847468</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.85142700000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.856881</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.86350800000000005</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.87182700000000002</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.87834100000000004</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.88104000000000005</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.87834900000000005</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.87143700000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.86106300000000002</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.85681099999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.85695500000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.85792100000000004</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.86326000000000003</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.86951999999999996</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.87761900000000004</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.88803500000000002</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.90906799999999999</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.94070799999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.98327399999999998</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0338419999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.0903700000000001</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.143024</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.1829080000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.212904</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.235517</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.2521629999999999</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.2542990000000001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.2435080000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.218272</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.1825190000000001</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.1402129999999999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.1008739999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.066403</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.0372429999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.0157419999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.0021610000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.99513499999999999</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.991842</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.99293299999999995</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.995784</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.99796899999999999</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.99855799999999995</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.99961199999999995</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1.0000640000000001</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.99312400000000001</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.97609199999999996</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.95999299999999999</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.93867900000000004</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.916659</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.89310699999999998</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.86738199999999999</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.840283</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.81427000000000005</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.79187700000000005</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.77890199999999998</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.77291200000000004</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.76328099999999999</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.75712900000000005</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.75129100000000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-19C3-1E45-84D1-73595FF2608D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7438,15 +7438,17 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ble-pd-60A423C96B13</c:v>
+            <c:v>ble-pd-60A423C968C6</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7457,543 +7459,561 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'ble-pd-60A423C96B13'!$B$2:$B$280</c:f>
+              <c:f>'ble-pd-60A423C968C6'!$B$2:$B$280</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="279"/>
                 <c:pt idx="0">
-                  <c:v>0.51559999999999995</c:v>
+                  <c:v>0.73937600000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0346409999999999</c:v>
+                  <c:v>1.4263490000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.5551200000000001</c:v>
+                  <c:v>2.063412</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.077359</c:v>
+                  <c:v>2.687173</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6012749999999998</c:v>
+                  <c:v>3.3060139999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.1269710000000002</c:v>
+                  <c:v>3.926212</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.6532429999999998</c:v>
+                  <c:v>4.5425550000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.1795780000000002</c:v>
+                  <c:v>5.1491020000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7002889999999997</c:v>
+                  <c:v>5.745438</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2164549999999998</c:v>
+                  <c:v>6.3337690000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.2155300000000002</c:v>
+                  <c:v>6.1758689999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.2093360000000004</c:v>
+                  <c:v>6.0680310000000004</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2008179999999999</c:v>
+                  <c:v>6.0077360000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.1901330000000003</c:v>
+                  <c:v>5.9579890000000004</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.177486</c:v>
+                  <c:v>5.9121360000000003</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.1629079999999998</c:v>
+                  <c:v>5.8665440000000002</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.147894</c:v>
+                  <c:v>5.8233139999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.1332630000000004</c:v>
+                  <c:v>5.7924389999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.124727</c:v>
+                  <c:v>5.7741030000000002</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.121397</c:v>
+                  <c:v>5.7657170000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.120406</c:v>
+                  <c:v>5.7662990000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.1221610000000002</c:v>
+                  <c:v>5.7677449999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.1263120000000004</c:v>
+                  <c:v>5.771973</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>5.1328009999999997</c:v>
+                  <c:v>5.7803440000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5.141076</c:v>
+                  <c:v>5.7930380000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>5.1517220000000004</c:v>
+                  <c:v>5.8077269999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>5.1651569999999998</c:v>
+                  <c:v>5.8273580000000003</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>5.1812100000000001</c:v>
+                  <c:v>5.8476379999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5.2000209999999996</c:v>
+                  <c:v>5.8690629999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5.2222419999999996</c:v>
+                  <c:v>5.8914460000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>5.2562680000000004</c:v>
+                  <c:v>5.9082460000000001</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>5.2981319999999998</c:v>
+                  <c:v>5.9243670000000002</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>5.3428129999999996</c:v>
+                  <c:v>5.9397979999999997</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>5.3880470000000003</c:v>
+                  <c:v>5.9541339999999998</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>5.4333679999999998</c:v>
+                  <c:v>5.965401</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>5.476642</c:v>
+                  <c:v>5.9737520000000002</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>5.519819</c:v>
+                  <c:v>5.9805489999999999</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>5.565442</c:v>
+                  <c:v>5.9872550000000002</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>5.6075210000000002</c:v>
+                  <c:v>5.9959930000000004</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>5.6399480000000004</c:v>
+                  <c:v>6.0191540000000003</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>5.6447060000000002</c:v>
+                  <c:v>6.0647679999999999</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>5.628145</c:v>
+                  <c:v>6.1308699999999998</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>5.5957879999999998</c:v>
+                  <c:v>6.2051660000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>5.5588449999999998</c:v>
+                  <c:v>6.2875560000000004</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>5.5202489999999997</c:v>
+                  <c:v>6.3782220000000001</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>5.4821869999999997</c:v>
+                  <c:v>6.4835399999999996</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>5.4436910000000003</c:v>
+                  <c:v>6.5986989999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>5.3991819999999997</c:v>
+                  <c:v>6.7184739999999996</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>5.3534410000000001</c:v>
+                  <c:v>6.8388869999999997</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5.3115949999999996</c:v>
+                  <c:v>6.9492859999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5.283207</c:v>
+                  <c:v>7.0465799999999996</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>5.2659099999999999</c:v>
+                  <c:v>7.1295950000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>5.2593269999999999</c:v>
+                  <c:v>7.2053120000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>5.2550509999999999</c:v>
+                  <c:v>7.2711100000000002</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5.249212</c:v>
+                  <c:v>7.3223710000000004</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>5.2397030000000004</c:v>
+                  <c:v>7.3579610000000004</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>5.2251849999999997</c:v>
+                  <c:v>7.3816519999999999</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>5.2116340000000001</c:v>
+                  <c:v>7.3978169999999999</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>5.2005999999999997</c:v>
+                  <c:v>7.4084190000000003</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>5.192501</c:v>
+                  <c:v>7.412884</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>5.1873420000000001</c:v>
+                  <c:v>7.4130120000000002</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>5.1856159999999996</c:v>
+                  <c:v>7.4105840000000001</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5.186922</c:v>
+                  <c:v>7.4097270000000002</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>5.1908200000000004</c:v>
+                  <c:v>7.4123720000000004</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>5.19923</c:v>
+                  <c:v>7.4235389999999999</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5.213724</c:v>
+                  <c:v>7.4376939999999996</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5.2336989999999997</c:v>
+                  <c:v>7.4551129999999999</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>5.2556229999999999</c:v>
+                  <c:v>7.4754579999999997</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>5.2784990000000001</c:v>
+                  <c:v>7.4985749999999998</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>5.3033929999999998</c:v>
+                  <c:v>7.5241959999999999</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>5.3316530000000002</c:v>
+                  <c:v>7.5523569999999998</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>5.3639999999999999</c:v>
+                  <c:v>7.5835980000000003</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>5.4004289999999999</c:v>
+                  <c:v>7.6171920000000002</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>5.4406829999999999</c:v>
+                  <c:v>7.6496459999999997</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>5.482863</c:v>
+                  <c:v>7.6795689999999999</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5.5218800000000003</c:v>
+                  <c:v>7.7070749999999997</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5.5573779999999999</c:v>
+                  <c:v>7.7326610000000002</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>5.5872339999999996</c:v>
+                  <c:v>7.7569160000000004</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>5.613111</c:v>
+                  <c:v>7.7797489999999998</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>5.6343880000000004</c:v>
+                  <c:v>7.8013659999999998</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>5.6493440000000001</c:v>
+                  <c:v>7.8210309999999996</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>5.6570520000000002</c:v>
+                  <c:v>7.8246250000000002</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>5.6553659999999999</c:v>
+                  <c:v>7.8253360000000001</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>5.644164</c:v>
+                  <c:v>7.826422</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>5.6255430000000004</c:v>
+                  <c:v>7.8283969999999998</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>5.6011350000000002</c:v>
+                  <c:v>7.8307159999999998</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>5.5562959999999997</c:v>
+                  <c:v>7.8264480000000001</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>5.4928600000000003</c:v>
+                  <c:v>7.8197210000000004</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>5.4118950000000003</c:v>
+                  <c:v>7.8100399999999999</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>5.3250590000000004</c:v>
+                  <c:v>7.7964830000000003</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>5.2341040000000003</c:v>
+                  <c:v>7.779852</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>5.1400800000000002</c:v>
+                  <c:v>7.7735479999999999</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>5.0472840000000003</c:v>
+                  <c:v>7.7643490000000002</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>4.9572520000000004</c:v>
+                  <c:v>7.7515289999999997</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>4.8704799999999997</c:v>
+                  <c:v>7.7271710000000002</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>4.7912400000000002</c:v>
+                  <c:v>7.7014519999999997</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>4.7359869999999997</c:v>
+                  <c:v>7.6806369999999999</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>4.7061780000000004</c:v>
+                  <c:v>7.660177</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>4.6996880000000001</c:v>
+                  <c:v>7.6402479999999997</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>4.7045789999999998</c:v>
+                  <c:v>7.6210969999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>4.7179060000000002</c:v>
+                  <c:v>7.6020099999999999</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>4.7372629999999996</c:v>
+                  <c:v>7.5831970000000002</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>4.7597290000000001</c:v>
+                  <c:v>7.5646750000000003</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>4.783563</c:v>
+                  <c:v>7.5475519999999996</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>4.8080109999999996</c:v>
+                  <c:v>7.5400850000000004</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>4.8316949999999999</c:v>
+                  <c:v>7.5321999999999996</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>4.8533150000000003</c:v>
+                  <c:v>7.5234139999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>4.8722409999999998</c:v>
+                  <c:v>7.5134239999999997</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>4.8891169999999997</c:v>
+                  <c:v>7.5029409999999999</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>4.9028919999999996</c:v>
+                  <c:v>7.4921090000000001</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>4.9141450000000004</c:v>
+                  <c:v>7.4811269999999999</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>4.9223850000000002</c:v>
+                  <c:v>7.469805</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>4.9280109999999997</c:v>
+                  <c:v>7.458564</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>4.9302619999999999</c:v>
+                  <c:v>7.4480250000000003</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>4.9296740000000003</c:v>
+                  <c:v>7.4385490000000001</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>4.9287530000000004</c:v>
+                  <c:v>7.4299759999999999</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>4.9272179999999999</c:v>
+                  <c:v>7.4222590000000004</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>4.9220470000000001</c:v>
+                  <c:v>7.4149229999999999</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>4.915057</c:v>
+                  <c:v>7.4075480000000002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>4.9064360000000002</c:v>
+                  <c:v>7.4003129999999997</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>4.8970409999999998</c:v>
+                  <c:v>7.393262</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>4.8881930000000002</c:v>
+                  <c:v>7.3863719999999997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>4.8807150000000004</c:v>
+                  <c:v>7.3803320000000001</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>4.8763839999999998</c:v>
+                  <c:v>7.374701</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>4.8745260000000004</c:v>
+                  <c:v>7.3690379999999998</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>4.8744339999999999</c:v>
+                  <c:v>7.3639299999999999</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>4.8787900000000004</c:v>
+                  <c:v>7.360347</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>4.8908940000000003</c:v>
+                  <c:v>7.3586390000000002</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.9075069999999998</c:v>
+                  <c:v>7.3583730000000003</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>4.9292870000000004</c:v>
+                  <c:v>7.3589169999999999</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>4.956251</c:v>
+                  <c:v>7.360519</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>4.9882489999999997</c:v>
+                  <c:v>7.3634469999999999</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>5.0278879999999999</c:v>
+                  <c:v>7.3671629999999997</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>5.0769279999999997</c:v>
+                  <c:v>7.3729690000000003</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>5.1359510000000004</c:v>
+                  <c:v>7.3809189999999996</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>5.2008070000000002</c:v>
+                  <c:v>7.3905709999999996</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>5.2680129999999998</c:v>
+                  <c:v>7.4008260000000003</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>5.3378439999999996</c:v>
+                  <c:v>7.4117069999999998</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>5.411924</c:v>
+                  <c:v>7.4234289999999996</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>5.4904250000000001</c:v>
+                  <c:v>7.4364189999999999</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.5724530000000003</c:v>
+                  <c:v>7.4510199999999998</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.6592349999999998</c:v>
+                  <c:v>7.4670949999999996</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>5.7496809999999998</c:v>
+                  <c:v>7.4841040000000003</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>5.841844</c:v>
+                  <c:v>7.5002890000000004</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>5.9339469999999999</c:v>
+                  <c:v>7.5154529999999999</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>6.0286960000000001</c:v>
+                  <c:v>7.5297590000000003</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>6.1251059999999997</c:v>
+                  <c:v>7.543393</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>6.2168289999999997</c:v>
+                  <c:v>7.5565889999999998</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>6.3029219999999997</c:v>
+                  <c:v>7.5694189999999999</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>6.3818029999999997</c:v>
+                  <c:v>7.5819380000000001</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>6.4534120000000001</c:v>
+                  <c:v>7.5936199999999996</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>6.5172359999999996</c:v>
+                  <c:v>7.6040520000000003</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>6.5703630000000004</c:v>
+                  <c:v>7.6130069999999996</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>6.6114790000000001</c:v>
+                  <c:v>7.6205069999999999</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>6.6406890000000001</c:v>
+                  <c:v>7.6262590000000001</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>6.6575220000000002</c:v>
+                  <c:v>7.6308179999999997</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>6.6637810000000002</c:v>
+                  <c:v>7.6346449999999999</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>6.6659670000000002</c:v>
+                  <c:v>7.6371219999999997</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>6.6650140000000002</c:v>
+                  <c:v>7.637975</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>6.6636620000000004</c:v>
+                  <c:v>7.6279469999999998</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>6.6632579999999999</c:v>
+                  <c:v>7.5644020000000003</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>6.6646260000000002</c:v>
+                  <c:v>7.4091370000000003</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>6.6686699999999997</c:v>
+                  <c:v>7.1664510000000003</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>6.6756120000000001</c:v>
+                  <c:v>6.8689410000000004</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>6.6895009999999999</c:v>
+                  <c:v>6.5562870000000002</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>6.7116220000000002</c:v>
+                  <c:v>6.2202510000000002</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>6.7557799999999997</c:v>
+                  <c:v>5.8608149999999997</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>6.8536640000000002</c:v>
+                  <c:v>5.4837350000000002</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>7.0069270000000001</c:v>
+                  <c:v>5.1081320000000003</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>7.1982210000000002</c:v>
+                  <c:v>4.7476719999999997</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>7.4196059999999999</c:v>
+                  <c:v>4.442863</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>7.664371</c:v>
+                  <c:v>4.2314759999999998</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>7.9275419999999999</c:v>
+                  <c:v>4.1099969999999999</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>8.2034599999999998</c:v>
+                  <c:v>4.045147</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>8.4856049999999996</c:v>
+                  <c:v>3.9979049999999998</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>8.7702000000000009</c:v>
+                  <c:v>3.975743</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>9.0409410000000001</c:v>
+                  <c:v>3.9782479999999998</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>9.2628229999999991</c:v>
+                  <c:v>4.0003190000000002</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>4.0237720000000001</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>4.0471089999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>4.0761289999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>4.1183550000000002</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>4.177397</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>4.2578990000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8001,7 +8021,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-599D-E140-B8CA-70BF269B55B6}"/>
+              <c16:uniqueId val="{00000006-599D-E140-B8CA-70BF269B55B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -8454,8 +8474,576 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C96B13</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C96B13'!$B$2:$B$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>0.51559999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0346409999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5551200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.077359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6012749999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1269710000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6532429999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.1795780000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.7002889999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.2164549999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.2155300000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.2093360000000004</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.2008179999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1901330000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.177486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1629079999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.147894</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.1332630000000004</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.124727</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.121397</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.120406</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.1221610000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.1263120000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.1328009999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.141076</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.1517220000000004</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.1651569999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.1812100000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.2000209999999996</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.2222419999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2562680000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2981319999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3428129999999996</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.3880470000000003</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.4333679999999998</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.476642</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.519819</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.565442</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.6075210000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.6399480000000004</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.6447060000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.628145</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.5957879999999998</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.5588449999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.5202489999999997</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.4821869999999997</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.4436910000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.3991819999999997</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.3534410000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.3115949999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.283207</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.2659099999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.2593269999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.2550509999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.249212</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.2397030000000004</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.2251849999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.2116340000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.2005999999999997</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.192501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.1873420000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.1856159999999996</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.186922</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.1908200000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.19923</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.213724</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.2336989999999997</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.2556229999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.2784990000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3033929999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.3316530000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.3639999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.4004289999999999</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.4406829999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.482863</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.5218800000000003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.5573779999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.5872339999999996</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.613111</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.6343880000000004</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.6493440000000001</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.6570520000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.6553659999999999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.644164</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.6255430000000004</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.6011350000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.5562959999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.4928600000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.4118950000000003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.3250590000000004</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.2341040000000003</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.1400800000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.0472840000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4.9572520000000004</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>4.8704799999999997</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>4.7912400000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>4.7359869999999997</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>4.7061780000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>4.6996880000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>4.7045789999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>4.7179060000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>4.7372629999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>4.7597290000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>4.783563</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>4.8080109999999996</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>4.8316949999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>4.8533150000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>4.8722409999999998</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4.8891169999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>4.9028919999999996</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>4.9141450000000004</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.9223850000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.9280109999999997</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.9302619999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.9296740000000003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.9287530000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.9272179999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.9220470000000001</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.915057</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.9064360000000002</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.8970409999999998</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8881930000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.8807150000000004</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.8763839999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.8745260000000004</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.8744339999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.8787900000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.8908940000000003</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.9075069999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.9292870000000004</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.956251</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.9882489999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.0278879999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.0769279999999997</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.1359510000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.2008070000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.2680129999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.3378439999999996</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.411924</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.4904250000000001</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.5724530000000003</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6592349999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.7496809999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.841844</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.9339469999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>6.0286960000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.1251059999999997</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>6.2168289999999997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.3029219999999997</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>6.3818029999999997</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.4534120000000001</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>6.5172359999999996</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.5703630000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>6.6114790000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.6406890000000001</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>6.6575220000000002</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.6637810000000002</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>6.6659670000000002</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.6650140000000002</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>6.6636620000000004</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.6632579999999999</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>6.6646260000000002</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.6686699999999997</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>6.6756120000000001</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.6895009999999999</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.7116220000000002</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.7557799999999997</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.8536640000000002</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.0069270000000001</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.1982210000000002</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.4196059999999999</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.664371</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.9275419999999999</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>8.2034599999999998</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>8.4856049999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>8.7702000000000009</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>9.0409410000000001</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>9.2628229999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-599D-E140-B8CA-70BF269B55B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:v>ble-pd-60A423C96AB5</c:v>
           </c:tx>
@@ -9020,7 +9608,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>ble-pd-60A423C96721</c:v>
           </c:tx>
@@ -9660,7 +10248,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>ble-pd-60A423C96B3C</c:v>
           </c:tx>
@@ -10335,8 +10923,1049 @@
           </c:extLst>
         </c:ser>
         <c:ser>
+          <c:idx val="8"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C96746</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C96746'!$B$2:$B$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>0.29137299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61300200000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.94177500000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2753319999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6122540000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9510339999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.2913779999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.6311879999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.97071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3092199999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.3564050000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3738320000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.3846759999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.39168</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.396487</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.400747</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.404849</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.410539</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.4178169999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4274900000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.4392290000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4512510000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4635280000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.4757120000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4887350000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.5019399999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.515155</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.5217079999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.523911</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.523164</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.5195120000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.5120770000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.5033210000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.493935</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.4826980000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.470345</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.457443</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.4506830000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.447279</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.4457249999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4453529999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.4486110000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.453192</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.4584999999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.464677</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.4719220000000002</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4800460000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>3.489684</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.5007229999999998</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>3.5131039999999998</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>3.5266570000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.5408949999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.5550630000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.5687489999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.5805829999999998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5902820000000002</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.5985320000000001</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.6038549999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.6074950000000001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.6098400000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.6109640000000001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.6107480000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.6097959999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.6085609999999999</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.6088170000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.6103830000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.6118709999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6144310000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.6173790000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.6191390000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.6180729999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.6134379999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.604908</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.5924390000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.5743260000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.5495739999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>3.5183219999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.4815450000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.440858</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.3980760000000001</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>3.355982</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.3159930000000002</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>3.2783380000000002</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.241908</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>3.2085110000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.1796669999999998</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>3.1560609999999998</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>3.1369919999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.1209199999999999</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.1074600000000001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.0953919999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.0847039999999999</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.075898</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.0712869999999999</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.0691130000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.069458</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.0719880000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.0766450000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.083145</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.0926749999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.105178</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.1193200000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.1344699999999999</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.1491509999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.1632630000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.175916</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.1874910000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1980059999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.2076229999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2157689999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.2226889999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2296260000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.238184</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.2497069999999999</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.2665109999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.2892619999999999</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>3.3168069999999998</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>3.348395</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>3.385259</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>3.4225669999999999</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>3.4599419999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>3.4967779999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>3.5309029999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>3.559701</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>3.581842</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>3.596997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>3.606125</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>3.6101730000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.6070880000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.6013639999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.5939199999999998</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.585556</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.5773239999999999</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.5708890000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.5667749999999998</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.5649799999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.565896</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.5689150000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.57559</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.5843829999999999</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.5950039999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.607024</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.6210610000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.6352950000000002</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.6482749999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.658731</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.666172</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.671764</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.6754709999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.6784500000000002</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.6802459999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>3.681057</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>3.6803720000000002</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.6801970000000002</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.682321</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.6883859999999999</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.6980179999999998</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.7105779999999999</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>3.7253419999999999</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>3.7425389999999998</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.7626390000000001</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>3.7832859999999999</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>3.8041680000000002</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>3.826063</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>3.8479230000000002</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>3.869281</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>3.891972</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>3.926355</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>3.9611529999999999</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>4.0002409999999999</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>4.0494770000000004</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>4.1028079999999996</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>4.1681710000000001</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>4.2443390000000001</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>4.3310979999999999</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>4.427111</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>4.5306280000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-599D-E140-B8CA-70BF269B55B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>ble-pd-60A423C9689C</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ble-pd-60A423C9689C'!$B$2:$B$280</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="279"/>
+                <c:pt idx="0">
+                  <c:v>0.34187899999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68861899999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0425260000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.391634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.728194</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.050678</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.357513</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.650881</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.9333770000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2075640000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1336569999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.04975</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.953967</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.8591150000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7738200000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.700895</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.6424609999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.5970019999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.561712</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.533998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.5120369999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4947780000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4815140000000002</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4714209999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.4637440000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.4572319999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.4514580000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.445805</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4404180000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4354529999999999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.4308139999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.4265080000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.422911</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.4200539999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.4178739999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2.4161990000000002</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.4148489999999998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.413783</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.413119</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.41275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4124910000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.4123399999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.4121760000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.4119269999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2.4115489999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2.4111479999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.410765</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2.4103889999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.4102100000000002</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.4105289999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2.4150070000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2.433878</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.4531999999999998</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.4711590000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.5165790000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.5543119999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.5871019999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.616384</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.642884</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.6669179999999999</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.6854119999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.6998660000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.724208</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7654350000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.8384360000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>2.8990529999999999</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>2.9548519999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.0027750000000002</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.0508190000000002</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.0937220000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.1219109999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.1176200000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.0714130000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.976423</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.7990400000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6292409999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.4998369999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.3938869999999999</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.2924349999999998</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>2.198226</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.1196510000000002</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.0598879999999999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.0275759999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.0203869999999999</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.0252970000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.032511</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9775419999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.896614</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.8051170000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.7059629999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.6018509999999999</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.503349</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.413249</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.334916</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.2709269999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.2197800000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.2150350000000001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.2378070000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.265431</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2967420000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.3301989999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.358417</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.380695</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.399173</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.4134629999999999</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.427845</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.4262269999999999</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.4108229999999999</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3995010000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.3920189999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.389589</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.3920570000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.395435</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.400881</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.410609</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.427686</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.458464</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.5010829999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.5530759999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.6180060000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.6944239999999999</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.7794209999999999</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.8708990000000001</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.963271</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2.0539930000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2.1355050000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2.2058149999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2.2665850000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2.3194819999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2.361567</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2.3922910000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2.41371</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2.4302510000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2.4423629999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2.4527670000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2.4618739999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2.4690949999999998</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2.473779</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2.4762369999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2.476442</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2.4746410000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2.4738579999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2.5019619999999998</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2.5770520000000001</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2.7202440000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2.9220060000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-599D-E140-B8CA-70BF269B55B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="8"/>
           <c:tx>
             <c:v>ble-pd-60A423C96825</c:v>
           </c:tx>
@@ -10924,596 +12553,8 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C968C6</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C968C6'!$B$2:$B$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>0.73937600000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.4263490000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.063412</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.687173</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.3060139999999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.926212</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5425550000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.1491020000000001</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.745438</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.3337690000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.1758689999999996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0680310000000004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0077360000000004</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.9579890000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9121360000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>5.8665440000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>5.8233139999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.7924389999999999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.7741030000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>5.7657170000000004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>5.7662990000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.7677449999999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5.771973</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5.7803440000000004</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5.7930380000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.8077269999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5.8273580000000003</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.8476379999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.8690629999999997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.8914460000000002</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.9082460000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.9243670000000002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.9397979999999997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.9541339999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>5.965401</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.9737520000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>5.9805489999999999</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>5.9872550000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.9959930000000004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.0191540000000003</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.0647679999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.1308699999999998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.2051660000000002</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.2875560000000004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.3782220000000001</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.4835399999999996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.5986989999999999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.7184739999999996</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.8388869999999997</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.9492859999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.0465799999999996</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.1295950000000001</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.2053120000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>7.2711100000000002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>7.3223710000000004</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>7.3579610000000004</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>7.3816519999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>7.3978169999999999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.4084190000000003</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>7.412884</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>7.4130120000000002</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>7.4105840000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>7.4097270000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>7.4123720000000004</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.4235389999999999</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.4376939999999996</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>7.4551129999999999</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>7.4754579999999997</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>7.4985749999999998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>7.5241959999999999</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>7.5523569999999998</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>7.5835980000000003</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>7.6171920000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.6496459999999997</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.6795689999999999</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.7070749999999997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.7326610000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.7569160000000004</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.7797489999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.8013659999999998</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.8210309999999996</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>7.8246250000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>7.8253360000000001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>7.826422</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>7.8283969999999998</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>7.8307159999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>7.8264480000000001</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>7.8197210000000004</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>7.8100399999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>7.7964830000000003</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>7.779852</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>7.7735479999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>7.7643490000000002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>7.7515289999999997</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>7.7271710000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>7.7014519999999997</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>7.6806369999999999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>7.660177</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>7.6402479999999997</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>7.6210969999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>7.6020099999999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>7.5831970000000002</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>7.5646750000000003</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>7.5475519999999996</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>7.5400850000000004</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>7.5321999999999996</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>7.5234139999999998</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>7.5134239999999997</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>7.5029409999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>7.4921090000000001</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>7.4811269999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>7.469805</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>7.458564</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>7.4480250000000003</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>7.4385490000000001</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>7.4299759999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>7.4222590000000004</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>7.4149229999999999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>7.4075480000000002</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>7.4003129999999997</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>7.393262</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>7.3863719999999997</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7.3803320000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>7.374701</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>7.3690379999999998</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>7.3639299999999999</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>7.360347</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>7.3586390000000002</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>7.3583730000000003</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>7.3589169999999999</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>7.360519</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>7.3634469999999999</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>7.3671629999999997</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>7.3729690000000003</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>7.3809189999999996</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>7.3905709999999996</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>7.4008260000000003</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>7.4117069999999998</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>7.4234289999999996</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>7.4364189999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>7.4510199999999998</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>7.4670949999999996</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>7.4841040000000003</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>7.5002890000000004</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>7.5154529999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>7.5297590000000003</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7.543393</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>7.5565889999999998</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>7.5694189999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>7.5819380000000001</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7.5936199999999996</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>7.6040520000000003</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>7.6130069999999996</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>7.6205069999999999</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.6262590000000001</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>7.6308179999999997</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>7.6346449999999999</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>7.6371219999999997</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>7.637975</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>7.6279469999999998</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>7.5644020000000003</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>7.4091370000000003</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>7.1664510000000003</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.8689410000000004</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.5562870000000002</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.2202510000000002</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>5.8608149999999997</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>5.4837350000000002</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>5.1081320000000003</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4.7476719999999997</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4.442863</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4.2314759999999998</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4.1099969999999999</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4.045147</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>3.9979049999999998</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>3.975743</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>3.9782479999999998</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>4.0003190000000002</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>4.0237720000000001</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>4.0471089999999998</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>4.0761289999999999</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>4.1183550000000002</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>4.177397</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>4.2578990000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-599D-E140-B8CA-70BF269B55B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:order val="9"/>
           <c:tx>
             <c:v>ble-pd-60A423C96FC6</c:v>
           </c:tx>
@@ -12174,1047 +13215,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000007-599D-E140-B8CA-70BF269B55B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C96746</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C96746'!$B$2:$B$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>0.29137299999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.61300200000000005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94177500000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.2753319999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.6122540000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9510339999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.2913779999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.6311879999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.97071</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.3092199999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.3564050000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.3738320000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.3846759999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>3.39168</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>3.396487</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.400747</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.404849</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.410539</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.4178169999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.4274900000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.4392290000000001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.4512510000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.4635280000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.4757120000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4887350000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>3.5019399999999998</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>3.515155</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>3.5217079999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>3.523911</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>3.523164</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3.5195120000000002</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.5120770000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.5033210000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.493935</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4826980000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.470345</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.457443</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.4506830000000002</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.447279</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.4457249999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.4453529999999999</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.4486110000000001</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.453192</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.4584999999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.464677</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.4719220000000002</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.4800460000000002</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>3.489684</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.5007229999999998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>3.5131039999999998</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.5266570000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.5408949999999999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.5550630000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>3.5687489999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>3.5805829999999998</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.5902820000000002</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>3.5985320000000001</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>3.6038549999999998</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>3.6074950000000001</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>3.6098400000000002</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>3.6109640000000001</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>3.6107480000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.6097959999999998</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>3.6085609999999999</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.6088170000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.6103830000000001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.6118709999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.6144310000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.6173790000000001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.6191390000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.6180729999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.6134379999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.604908</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>3.5924390000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.5743260000000001</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.5495739999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>3.5183219999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>3.4815450000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>3.440858</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>3.3980760000000001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>3.355982</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>3.3159930000000002</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>3.2783380000000002</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>3.241908</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>3.2085110000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>3.1796669999999998</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>3.1560609999999998</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>3.1369919999999998</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>3.1209199999999999</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>3.1074600000000001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.0953919999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.0847039999999999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.075898</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.0712869999999999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.0691130000000002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.069458</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.0719880000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.0766450000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>3.083145</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>3.0926749999999998</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>3.105178</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>3.1193200000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>3.1344699999999999</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>3.1491509999999998</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>3.1632630000000002</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>3.175916</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>3.1874910000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.1980059999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.2076229999999999</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.2157689999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.2226889999999999</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.2296260000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.238184</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3.2497069999999999</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.2665109999999999</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>3.2892619999999999</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>3.3168069999999998</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>3.348395</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>3.385259</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>3.4225669999999999</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>3.4599419999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>3.4967779999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>3.5309029999999999</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>3.559701</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>3.581842</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>3.596997</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>3.606125</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>3.6101730000000001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>3.6070880000000001</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>3.6013639999999998</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>3.5939199999999998</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>3.585556</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>3.5773239999999999</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>3.5708890000000002</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>3.5667749999999998</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>3.5649799999999998</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>3.565896</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>3.5689150000000001</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>3.57559</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>3.5843829999999999</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>3.5950039999999999</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>3.607024</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>3.6210610000000001</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>3.6352950000000002</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>3.6482749999999999</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>3.658731</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>3.666172</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>3.671764</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>3.6754709999999999</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>3.6784500000000002</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>3.6802459999999999</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>3.681057</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>3.6803720000000002</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>3.6801970000000002</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>3.682321</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>3.6883859999999999</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>3.6980179999999998</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>3.7105779999999999</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>3.7253419999999999</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>3.7425389999999998</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>3.7626390000000001</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>3.7832859999999999</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>3.8041680000000002</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>3.826063</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>3.8479230000000002</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>3.869281</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>3.891972</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>3.926355</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>3.9611529999999999</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>4.0002409999999999</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>4.0494770000000004</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>4.1028079999999996</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>4.1681710000000001</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>4.2443390000000001</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>4.3310979999999999</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>4.427111</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>4.5306280000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-599D-E140-B8CA-70BF269B55B6}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:tx>
-            <c:v>ble-pd-60A423C9689C</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'ble-pd-60A423C9689C'!$B$2:$B$280</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="279"/>
-                <c:pt idx="0">
-                  <c:v>0.34187899999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.68861899999999998</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0425260000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.391634</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.728194</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.050678</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.357513</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.650881</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.9333770000000001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2075640000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1336569999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.04975</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.953967</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.8591150000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.7738200000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.700895</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.6424609999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.5970019999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.561712</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.533998</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.5120369999999999</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.4947780000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4815140000000002</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.4714209999999999</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.4637440000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.4572319999999999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.4514580000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.445805</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.4404180000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.4354529999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.4308139999999998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.4265080000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>2.422911</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.4200539999999999</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>2.4178739999999999</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2.4161990000000002</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>2.4148489999999998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.413783</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.413119</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.41275</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.4124910000000002</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.4123399999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.4121760000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>2.4119269999999999</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>2.4115489999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>2.4111479999999998</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.410765</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.4103889999999999</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.4102100000000002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.4105289999999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>2.4150070000000001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>2.433878</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>2.4531999999999998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2.4711590000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>2.5165790000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.5543119999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.5871019999999998</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.616384</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.642884</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.6669179999999999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.6854119999999999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.6998660000000001</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.724208</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.7654350000000001</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>2.8384360000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>2.8990529999999999</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>2.9548519999999998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>3.0027750000000002</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>3.0508190000000002</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>3.0937220000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.1219109999999999</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>3.1176200000000001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.0714130000000002</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.976423</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.7990400000000002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>2.6292409999999999</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>2.4998369999999999</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>2.3938869999999999</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.2924349999999998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>2.198226</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.1196510000000002</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>2.0598879999999999</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.0275759999999998</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>2.0203869999999999</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>2.0252970000000001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>2.032511</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.9775419999999999</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1.896614</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.8051170000000001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.7059629999999999</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.6018509999999999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.503349</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1.413249</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1.334916</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.2709269999999999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1.2197800000000001</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1.2150350000000001</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1.2378070000000001</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.265431</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1.2967420000000001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1.3301989999999999</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.358417</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.380695</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1.399173</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1.4134629999999999</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.427845</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.4262269999999999</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1.4108229999999999</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1.3995010000000001</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1.3920189999999999</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.389589</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1.3920570000000001</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1.395435</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1.400881</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.410609</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1.427686</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1.458464</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1.5010829999999999</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.5530759999999999</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1.6180060000000001</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1.6944239999999999</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1.7794209999999999</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.8708990000000001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1.963271</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>2.0539930000000002</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>2.1355050000000002</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>2.2058149999999999</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>2.2665850000000001</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>2.3194819999999998</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>2.361567</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>2.3922910000000002</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>2.41371</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>2.4302510000000002</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>2.4423629999999998</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>2.4527670000000001</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>2.4618739999999999</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>2.4690949999999998</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>2.473779</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>2.4762369999999998</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>2.476442</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>2.4746410000000001</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>2.4738579999999999</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>2.5019619999999998</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>2.5770520000000001</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>2.7202440000000001</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>2.9220060000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-599D-E140-B8CA-70BF269B55B6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -23387,8 +23387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD9113A-AA9B-7E4B-B08E-65E4D647DB5C}">
   <dimension ref="A3:I163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
